--- a/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>005108</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.43</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.04</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.43</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>7.04</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>006274</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+          <t>圆信永丰医药健康混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,25 +710,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001887</t>
+          <t>166019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合E</t>
+          <t>中欧价值智选回报混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.63</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.01</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166019</t>
+          <t>002307</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合A</t>
+          <t>银华多元视野灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.63</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.01</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>88.95</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.45</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009789</t>
+          <t>006348</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富安达科技创新混合</t>
+          <t>银华盛利混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>78.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006348</t>
+          <t>002514</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华盛利混合</t>
+          <t>招商丰益灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>78.40</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>35.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>002581</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>招商丰凯灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001861</t>
+          <t>001887</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富安达健康人生灵活配置混合</t>
+          <t>中欧价值智选回报混合E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.57</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002307</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华多元视野灵活配置混合</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.67</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002514</t>
+          <t>001861</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商丰益灵活配置混合A</t>
+          <t>富安达健康人生灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>35.64</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002515</t>
+          <t>180028</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商丰益灵活配置混合C</t>
+          <t>银华永祥灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>35.64</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002581</t>
+          <t>002582</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商丰凯灵活配置混合A</t>
+          <t>招商丰凯灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>38.98</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2.14</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002582</t>
+          <t>002515</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商丰凯灵活配置混合C</t>
+          <t>招商丰益灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>38.98</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>35.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>180028</t>
+          <t>009789</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>银华永祥灵活配置混合</t>
+          <t>富安达科技创新混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>77.84</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>56.92</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9627</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8370</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6681</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2322,4 +2323,1124 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9996</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3321</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0805</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0491</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9308</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7506</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7299</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3443,4 +3444,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3452,7 +3453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3463,17 +3464,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3483,14 +3504,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.88</v>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3499,14 +3542,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.710000000000001</v>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3515,14 +3580,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.09</v>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3531,13 +3618,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5637</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3547</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4345,7 +4346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4356,17 +4357,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4376,14 +4397,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.84</v>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4392,14 +4435,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.88</v>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4558</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4408,14 +4473,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.710000000000001</v>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4424,14 +4511,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.09</v>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4440,13 +4549,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4820,7 +4821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4831,17 +4832,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4851,14 +4872,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.92</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4867,14 +4910,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.84</v>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8427</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4883,14 +4948,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.88</v>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4899,14 +4986,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.710000000000001</v>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4258</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4915,14 +5024,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.09</v>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4256</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -4931,13 +5062,523 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2622</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.710000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>6.63</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.92</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>5.84</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>14.88</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>8.710000000000001</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>3.09</v>
+        <v>8.710000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -600,6 +617,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发盛锦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7498</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4676</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012527</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发盛锦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012019</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +2284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1697,7 +2758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2589,7 +3650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3709,7 +4770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4753,7 +5814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5379,7 +6440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688198-佰仁医疗.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>5.99</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>6.63</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.92</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>5.84</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>14.88</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>8.710000000000001</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>3.09</v>
+        <v>8.710000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -616,7 +633,1143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014737</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014736</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015254</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012019</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1660,7 +2813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2284,7 +3437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2758,7 +3911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3650,7 +4803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4770,7 +5923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5814,7 +6967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6438,212 +7591,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005108</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1274</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0859</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006274</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>圆信永丰医药健康混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>